--- a/speech/test_upload2.xlsx
+++ b/speech/test_upload2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kai20\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A930ED0-B9E9-4307-AD99-3CA753FBE3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE89228-2028-410D-86EC-2D6C0C8850CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve">標題 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>單位/職稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地點</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,42 +51,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>這是第二筆測試資料的詳細內容說明。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試地點2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試地點1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>講師1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>講師2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試公告1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試公告2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>這是第一筆測試資料的詳細內容說明。</t>
-  </si>
-  <si>
-    <t>這是第二筆測試資料的詳細內容說明。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試地點2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試地點1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試單位/講師2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試單位/講師1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>講師1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>講師2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試公告1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試公告2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試職務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服務單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試單位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,80 +422,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="1">
+        <v>46388</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1">
-        <v>46388</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1">
+        <v>46389</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>46389</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
     </row>
